--- a/sample-dataset.xlsx
+++ b/sample-dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larryzotter/Desktop/chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEC01B3-5B10-B04E-8DD5-05ECCFC73865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5B2BB3-37A5-1A40-99E2-4A492F89A085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="480" windowWidth="28040" windowHeight="16160" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
+    <workbookView xWindow="6920" yWindow="10200" windowWidth="28040" windowHeight="16160" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Singapore</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>I/R</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -108,11 +105,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B56575-7B11-A44B-9EE9-516FDC2F033E}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,70 +463,56 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>74</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>20</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>48</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>8</v>
       </c>
-      <c r="F2" s="2">
-        <v>71.536523929471031</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45.535714285714285</v>
+      <c r="F2" s="4">
+        <v>72</v>
+      </c>
+      <c r="G2" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>70</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>20</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>40</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>30</v>
       </c>
-      <c r="F3" s="2">
-        <v>57.178841309823675</v>
-      </c>
-      <c r="G3" s="2">
-        <v>35.491071428571423</v>
+      <c r="F3" s="4">
+        <v>57</v>
+      </c>
+      <c r="G3" s="4">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2">
-        <v>56</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2">
-        <v>55</v>
-      </c>
-      <c r="F4" s="2">
-        <v>99</v>
-      </c>
-      <c r="G4" s="2">
-        <v>31</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -765,7 +749,7 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -774,7 +758,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1250,14 +1234,14 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -1457,15 +1441,6 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/sample-dataset.xlsx
+++ b/sample-dataset.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larryzotter/Desktop/chart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larryzotter/Documents/GitHub/country/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5B2BB3-37A5-1A40-99E2-4A492F89A085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553C92A2-2ACD-6C49-9CFE-9AB8DBF7A90F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="10200" windowWidth="28040" windowHeight="16160" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
+    <workbookView xWindow="13960" yWindow="1900" windowWidth="28040" windowHeight="16160" activeTab="1" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="vietnam" sheetId="1" r:id="rId1"/>
+    <sheet name="china" sheetId="2" r:id="rId2"/>
+    <sheet name="philippines" sheetId="3" r:id="rId3"/>
+    <sheet name="overall" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
   <si>
     <t>Singapore</t>
   </si>
@@ -57,6 +60,324 @@
   </si>
   <si>
     <t>I/R</t>
+  </si>
+  <si>
+    <t>Africa East</t>
+  </si>
+  <si>
+    <t>Africa West</t>
+  </si>
+  <si>
+    <t>Arab countries</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belgium French</t>
+  </si>
+  <si>
+    <t>Belgium Netherl</t>
+  </si>
+  <si>
+    <t>Bosnia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Canada French</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Rep</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Dominican Rep</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Germany East</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Korea South</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macedonia Rep</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Slovak Rep</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Africa white</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Switzerland French</t>
+  </si>
+  <si>
+    <t>Switzerland German</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>U.S.A.</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -428,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B56575-7B11-A44B-9EE9-516FDC2F033E}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1445,4 +1766,2692 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69BC92B-BFAC-6245-B896-0DF5851FF7B7}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>72</v>
+      </c>
+      <c r="G2" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2">
+        <v>87.405541561712795</v>
+      </c>
+      <c r="G3" s="2">
+        <v>23.660714285714299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1868D9F8-936E-0947-8BF8-CE3EDAAA9DEB}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>72</v>
+      </c>
+      <c r="G2" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2">
+        <v>27.455919395465994</v>
+      </c>
+      <c r="G3" s="2">
+        <v>41.964285714285708</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B0D3A0-BD86-664F-B931-6B3FDC7226BC}">
+  <dimension ref="A1:G109"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2">
+        <v>54</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2">
+        <v>68</v>
+      </c>
+      <c r="F4" s="2">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2">
+        <v>86</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20.403022670025187</v>
+      </c>
+      <c r="G5" s="2">
+        <v>61.830357142857139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C6" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D6" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E6" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F6" s="2">
+        <v>60.957178841309819</v>
+      </c>
+      <c r="G6" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2">
+        <v>21.158690176322416</v>
+      </c>
+      <c r="G7" s="2">
+        <v>71.428571428571416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2">
+        <v>79</v>
+      </c>
+      <c r="E8" s="2">
+        <v>70</v>
+      </c>
+      <c r="F8" s="2">
+        <v>60.453400503778333</v>
+      </c>
+      <c r="G8" s="2">
+        <v>62.723214285714278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C9" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D9" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E9" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F9" s="2">
+        <v>60.705289672544076</v>
+      </c>
+      <c r="G9" s="2">
+        <v>21.651785714285712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2">
+        <v>47.103274559193949</v>
+      </c>
+      <c r="G10" s="2">
+        <v>19.642857142857142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C11" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D11" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E11" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F11" s="2">
+        <v>80.856423173803506</v>
+      </c>
+      <c r="G11" s="2">
+        <v>14.9553571428571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2">
+        <v>94</v>
+      </c>
+      <c r="F12" s="2">
+        <v>81.863979848866506</v>
+      </c>
+      <c r="G12" s="2">
+        <v>56.696428571428598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2">
+        <v>72</v>
+      </c>
+      <c r="D13" s="2">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2">
+        <v>93</v>
+      </c>
+      <c r="F13" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G13" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2">
+        <v>97</v>
+      </c>
+      <c r="F14" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G14" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C15" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D15" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E15" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F15" s="2">
+        <v>69.77329974811083</v>
+      </c>
+      <c r="G15" s="2">
+        <v>44.196428571428569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2">
+        <v>76</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43.82871536523929</v>
+      </c>
+      <c r="G16" s="2">
+        <v>59.151785714285708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2">
+        <v>85</v>
+      </c>
+      <c r="F17" s="2">
+        <v>69.017632241813601</v>
+      </c>
+      <c r="G17" s="2">
+        <v>15.848214285714285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C18" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D18" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E18" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F18" s="2">
+        <v>27.455919395466001</v>
+      </c>
+      <c r="G18" s="2">
+        <v>18.0803571428571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2">
+        <v>80</v>
+      </c>
+      <c r="D19" s="2">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2">
+        <v>36.020151133501258</v>
+      </c>
+      <c r="G19" s="2">
+        <v>68.303571428571416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2">
+        <v>60</v>
+      </c>
+      <c r="F20" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G20" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2">
+        <v>28</v>
+      </c>
+      <c r="E21" s="2">
+        <v>86</v>
+      </c>
+      <c r="F21" s="2">
+        <v>30.982367758186395</v>
+      </c>
+      <c r="G21" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2">
+        <v>66</v>
+      </c>
+      <c r="E22" s="2">
+        <v>30</v>
+      </c>
+      <c r="F22" s="2">
+        <v>87.405541561712795</v>
+      </c>
+      <c r="G22" s="2">
+        <v>23.660714285714299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>80</v>
+      </c>
+      <c r="F23" s="2">
+        <v>13.09823677581864</v>
+      </c>
+      <c r="G23" s="2">
+        <v>83.035714285714278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2">
+        <v>86</v>
+      </c>
+      <c r="F24" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G24" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2">
+        <v>73</v>
+      </c>
+      <c r="C25" s="2">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2">
+        <v>40</v>
+      </c>
+      <c r="E25" s="2">
+        <v>80</v>
+      </c>
+      <c r="F25" s="2">
+        <v>58.438287153652389</v>
+      </c>
+      <c r="G25" s="2">
+        <v>33.258928571428569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C26" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D26" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E26" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F26" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G26" s="2">
+        <v>69.866071428571416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2">
+        <v>57</v>
+      </c>
+      <c r="E27" s="2">
+        <v>74</v>
+      </c>
+      <c r="F27" s="2">
+        <v>70.025188916876573</v>
+      </c>
+      <c r="G27" s="2">
+        <v>29.464285714285712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>74</v>
+      </c>
+      <c r="D28" s="2">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2">
+        <v>34.760705289672543</v>
+      </c>
+      <c r="G28" s="2">
+        <v>69.642857142857139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C29" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D29" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E29" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F29" s="2">
+        <v>13.09823677581864</v>
+      </c>
+      <c r="G29" s="2">
+        <v>54.241071428571423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2">
+        <v>78</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>63</v>
+      </c>
+      <c r="E30" s="2">
+        <v>67</v>
+      </c>
+      <c r="F30" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G30" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C31" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D31" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E31" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F31" s="2">
+        <v>6.8010075566750627</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4.2410714285714279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C32" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D32" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E32" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F32" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G32" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2">
+        <v>40</v>
+      </c>
+      <c r="E33" s="2">
+        <v>94</v>
+      </c>
+      <c r="F33" s="2">
+        <v>19.647355163728001</v>
+      </c>
+      <c r="G33" s="2">
+        <v>88.839285714285694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2">
+        <v>60</v>
+      </c>
+      <c r="D34" s="2">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2">
+        <v>60</v>
+      </c>
+      <c r="F34" s="2">
+        <v>82.115869017632235</v>
+      </c>
+      <c r="G34" s="2">
+        <v>16.294642857142854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="2">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2">
+        <v>63</v>
+      </c>
+      <c r="D35" s="2">
+        <v>26</v>
+      </c>
+      <c r="E35" s="2">
+        <v>59</v>
+      </c>
+      <c r="F35" s="2">
+        <v>38.287153652392945</v>
+      </c>
+      <c r="G35" s="2">
+        <v>57.366071428571423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2">
+        <v>68</v>
+      </c>
+      <c r="C36" s="2">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2">
+        <v>43</v>
+      </c>
+      <c r="E36" s="2">
+        <v>86</v>
+      </c>
+      <c r="F36" s="2">
+        <v>63.476070528967249</v>
+      </c>
+      <c r="G36" s="2">
+        <v>47.767857142857139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C37" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D37" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E37" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F37" s="2">
+        <v>38.287153652392945</v>
+      </c>
+      <c r="G37" s="2">
+        <v>31.919642857142854</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="2">
+        <v>67</v>
+      </c>
+      <c r="D38" s="2">
+        <v>66</v>
+      </c>
+      <c r="E38" s="2">
+        <v>65</v>
+      </c>
+      <c r="F38" s="2">
+        <v>82.871536523929464</v>
+      </c>
+      <c r="G38" s="2">
+        <v>40.401785714285708</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C39" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D39" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E39" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F39" s="2">
+        <v>77.833753148614605</v>
+      </c>
+      <c r="G39" s="2">
+        <v>34.151785714285701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C40" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D40" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E40" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3.5264483627204029</v>
+      </c>
+      <c r="G40" s="2">
+        <v>72.321428571428569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="2">
+        <v>35</v>
+      </c>
+      <c r="C41" s="2">
+        <v>89</v>
+      </c>
+      <c r="D41" s="2">
+        <v>66</v>
+      </c>
+      <c r="E41" s="2">
+        <v>35</v>
+      </c>
+      <c r="F41" s="2">
+        <v>51.133501259445801</v>
+      </c>
+      <c r="G41" s="2">
+        <v>69.419642857142804</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="2">
+        <v>60</v>
+      </c>
+      <c r="C42" s="2">
+        <v>35</v>
+      </c>
+      <c r="D42" s="2">
+        <v>57</v>
+      </c>
+      <c r="E42" s="2">
+        <v>112</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45.340050377833748</v>
+      </c>
+      <c r="G42" s="2">
+        <v>49.553571428571423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="2">
+        <v>95</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2">
+        <v>37</v>
+      </c>
+      <c r="E43" s="2">
+        <v>101</v>
+      </c>
+      <c r="F43" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G43" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="2">
+        <v>68</v>
+      </c>
+      <c r="C44" s="2">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2">
+        <v>57</v>
+      </c>
+      <c r="E44" s="2">
+        <v>29</v>
+      </c>
+      <c r="F44" s="2">
+        <v>60.957178841309819</v>
+      </c>
+      <c r="G44" s="2">
+        <v>16.964285714285712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="2">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2">
+        <v>80</v>
+      </c>
+      <c r="D45" s="2">
+        <v>88</v>
+      </c>
+      <c r="E45" s="2">
+        <v>82</v>
+      </c>
+      <c r="F45" s="2">
+        <v>58.186397984886646</v>
+      </c>
+      <c r="G45" s="2">
+        <v>31.473214285714281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C46" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D46" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E46" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F46" s="2">
+        <v>27.95969773299748</v>
+      </c>
+      <c r="G46" s="2">
+        <v>66.741071428571416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="2">
+        <v>77</v>
+      </c>
+      <c r="C47" s="2">
+        <v>48</v>
+      </c>
+      <c r="D47" s="2">
+        <v>56</v>
+      </c>
+      <c r="E47" s="2">
+        <v>40</v>
+      </c>
+      <c r="F47" s="2">
+        <v>50.8816120906801</v>
+      </c>
+      <c r="G47" s="2">
+        <v>26.116071428571399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="2">
+        <v>78</v>
+      </c>
+      <c r="C48" s="2">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2">
+        <v>48</v>
+      </c>
+      <c r="F48" s="2">
+        <v>61.964735516372791</v>
+      </c>
+      <c r="G48" s="2">
+        <v>37.723214285714285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="2">
+        <v>58</v>
+      </c>
+      <c r="C49" s="2">
+        <v>41</v>
+      </c>
+      <c r="D49" s="2">
+        <v>43</v>
+      </c>
+      <c r="E49" s="2">
+        <v>59</v>
+      </c>
+      <c r="F49" s="2">
+        <v>13.602015113350125</v>
+      </c>
+      <c r="G49" s="2">
+        <v>40.401785714285708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C50" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D50" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E50" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F50" s="2">
+        <v>24.9370277078086</v>
+      </c>
+      <c r="G50" s="2">
+        <v>16.741071428571399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="2">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2">
+        <v>70</v>
+      </c>
+      <c r="D51" s="2">
+        <v>68</v>
+      </c>
+      <c r="E51" s="2">
+        <v>35</v>
+      </c>
+      <c r="F51" s="2">
+        <v>24.433249370277078</v>
+      </c>
+      <c r="G51" s="2">
+        <v>64.955357142857139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="2">
+        <v>13</v>
+      </c>
+      <c r="C52" s="2">
+        <v>54</v>
+      </c>
+      <c r="D52" s="2">
+        <v>47</v>
+      </c>
+      <c r="E52" s="2">
+        <v>81</v>
+      </c>
+      <c r="F52" s="2">
+        <v>37.531486146095716</v>
+      </c>
+      <c r="G52" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2">
+        <v>76</v>
+      </c>
+      <c r="D53" s="2">
+        <v>70</v>
+      </c>
+      <c r="E53" s="2">
+        <v>75</v>
+      </c>
+      <c r="F53" s="2">
+        <v>61.460957178841305</v>
+      </c>
+      <c r="G53" s="2">
+        <v>29.687499999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45</v>
+      </c>
+      <c r="C54" s="2">
+        <v>39</v>
+      </c>
+      <c r="D54" s="2">
+        <v>68</v>
+      </c>
+      <c r="E54" s="2">
+        <v>13</v>
+      </c>
+      <c r="F54" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G54" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="2">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2">
+        <v>46</v>
+      </c>
+      <c r="D55" s="2">
+        <v>95</v>
+      </c>
+      <c r="E55" s="2">
+        <v>92</v>
+      </c>
+      <c r="F55" s="2">
+        <v>87.909319899244295</v>
+      </c>
+      <c r="G55" s="2">
+        <v>41.741071428571402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C56" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D56" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E56" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F56" s="2">
+        <v>16.120906801007557</v>
+      </c>
+      <c r="G56" s="2">
+        <v>43.080357142857139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="2">
+        <v>60</v>
+      </c>
+      <c r="C57" s="2">
+        <v>18</v>
+      </c>
+      <c r="D57" s="2">
+        <v>39</v>
+      </c>
+      <c r="E57" s="2">
+        <v>85</v>
+      </c>
+      <c r="F57" s="2">
+        <v>100</v>
+      </c>
+      <c r="G57" s="2">
+        <v>29.464285714285712</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C58" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D58" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E58" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F58" s="2">
+        <v>65.994962216624685</v>
+      </c>
+      <c r="G58" s="2">
+        <v>39.285714285714285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44</v>
+      </c>
+      <c r="C59" s="2">
+        <v>70</v>
+      </c>
+      <c r="D59" s="2">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2">
+        <v>63</v>
+      </c>
+      <c r="F59" s="2">
+        <v>68.765743073047858</v>
+      </c>
+      <c r="G59" s="2">
+        <v>12.946428571428569</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="2">
+        <v>42</v>
+      </c>
+      <c r="C60" s="2">
+        <v>60</v>
+      </c>
+      <c r="D60" s="2">
+        <v>19</v>
+      </c>
+      <c r="E60" s="2">
+        <v>65</v>
+      </c>
+      <c r="F60" s="2">
+        <v>81.863979848866492</v>
+      </c>
+      <c r="G60" s="2">
+        <v>15.624999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="2">
+        <v>40</v>
+      </c>
+      <c r="C61" s="2">
+        <v>60</v>
+      </c>
+      <c r="D61" s="2">
+        <v>50</v>
+      </c>
+      <c r="E61" s="2">
+        <v>70</v>
+      </c>
+      <c r="F61" s="2">
+        <v>63.979848866498735</v>
+      </c>
+      <c r="G61" s="2">
+        <v>56.026785714285708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C62" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D62" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E62" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F62" s="2">
+        <v>61.712846347607048</v>
+      </c>
+      <c r="G62" s="2">
+        <v>35.267857142857139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="2">
+        <v>104</v>
+      </c>
+      <c r="C63" s="2">
+        <v>26</v>
+      </c>
+      <c r="D63" s="2">
+        <v>50</v>
+      </c>
+      <c r="E63" s="2">
+        <v>36</v>
+      </c>
+      <c r="F63" s="2">
+        <v>40.806045340050375</v>
+      </c>
+      <c r="G63" s="2">
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C64" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D64" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E64" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F64" s="2">
+        <v>20.151133501259444</v>
+      </c>
+      <c r="G64" s="2">
+        <v>42.633928571428569</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="2">
+        <v>56</v>
+      </c>
+      <c r="C65" s="2">
+        <v>59</v>
+      </c>
+      <c r="D65" s="2">
+        <v>47</v>
+      </c>
+      <c r="E65" s="2">
+        <v>96</v>
+      </c>
+      <c r="F65" s="2">
+        <v>47.103274559193949</v>
+      </c>
+      <c r="G65" s="2">
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="2">
+        <v>81</v>
+      </c>
+      <c r="C66" s="2">
+        <v>30</v>
+      </c>
+      <c r="D66" s="2">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>82</v>
+      </c>
+      <c r="F66" s="2">
+        <v>24.1813602015113</v>
+      </c>
+      <c r="G66" s="2">
+        <v>97.321428571428598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C67" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D67" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E67" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F67" s="2">
+        <v>71.032745591939502</v>
+      </c>
+      <c r="G67" s="2">
+        <v>19.196428571428601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C68" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D68" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E68" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F68" s="2">
+        <v>75.314861460957175</v>
+      </c>
+      <c r="G68" s="2">
+        <v>19.866071428571427</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="2">
+        <v>70</v>
+      </c>
+      <c r="C69" s="2">
+        <v>46</v>
+      </c>
+      <c r="D69" s="2">
+        <v>53</v>
+      </c>
+      <c r="E69" s="2">
+        <v>68</v>
+      </c>
+      <c r="F69" s="2">
+        <v>14.105793450881611</v>
+      </c>
+      <c r="G69" s="2">
+        <v>25.446428571428569</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="2">
+        <v>38</v>
+      </c>
+      <c r="C70" s="2">
+        <v>80</v>
+      </c>
+      <c r="D70" s="2">
+        <v>14</v>
+      </c>
+      <c r="E70" s="2">
+        <v>53</v>
+      </c>
+      <c r="F70" s="2">
+        <v>67.002518891687657</v>
+      </c>
+      <c r="G70" s="2">
+        <v>68.303571428571416</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="2">
+        <v>22</v>
+      </c>
+      <c r="C71" s="2">
+        <v>79</v>
+      </c>
+      <c r="D71" s="2">
+        <v>58</v>
+      </c>
+      <c r="E71" s="2">
+        <v>49</v>
+      </c>
+      <c r="F71" s="2">
+        <v>32.7455919395466</v>
+      </c>
+      <c r="G71" s="2">
+        <v>74.553571428571402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C72" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D72" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E72" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F72" s="2">
+        <v>12.846347607052897</v>
+      </c>
+      <c r="G72" s="2">
+        <v>83.928571428571416</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="2">
+        <v>31</v>
+      </c>
+      <c r="C73" s="2">
+        <v>69</v>
+      </c>
+      <c r="D73" s="2">
+        <v>8</v>
+      </c>
+      <c r="E73" s="2">
+        <v>50</v>
+      </c>
+      <c r="F73" s="2">
+        <v>34.508816120906801</v>
+      </c>
+      <c r="G73" s="2">
+        <v>55.133928571428569</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="2">
+        <v>55</v>
+      </c>
+      <c r="C74" s="2">
+        <v>14</v>
+      </c>
+      <c r="D74" s="2">
+        <v>50</v>
+      </c>
+      <c r="E74" s="2">
+        <v>70</v>
+      </c>
+      <c r="F74" s="2">
+        <v>49.874055415617129</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="2">
+        <v>95</v>
+      </c>
+      <c r="C75" s="2">
+        <v>11</v>
+      </c>
+      <c r="D75" s="2">
+        <v>44</v>
+      </c>
+      <c r="E75" s="2">
+        <v>86</v>
+      </c>
+      <c r="F75" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G75" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="2">
+        <v>64</v>
+      </c>
+      <c r="C76" s="2">
+        <v>16</v>
+      </c>
+      <c r="D76" s="2">
+        <v>42</v>
+      </c>
+      <c r="E76" s="2">
+        <v>87</v>
+      </c>
+      <c r="F76" s="2">
+        <v>25.188916876574307</v>
+      </c>
+      <c r="G76" s="2">
+        <v>46.205357142857139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="2">
+        <v>94</v>
+      </c>
+      <c r="C77" s="2">
+        <v>32</v>
+      </c>
+      <c r="D77" s="2">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44</v>
+      </c>
+      <c r="F77" s="2">
+        <v>27.455919395465994</v>
+      </c>
+      <c r="G77" s="2">
+        <v>41.964285714285708</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="2">
+        <v>68</v>
+      </c>
+      <c r="C78" s="2">
+        <v>60</v>
+      </c>
+      <c r="D78" s="2">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>93</v>
+      </c>
+      <c r="F78" s="2">
+        <v>37.783375314861459</v>
+      </c>
+      <c r="G78" s="2">
+        <v>29.241071428571427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="2">
+        <v>63</v>
+      </c>
+      <c r="C79" s="2">
+        <v>27</v>
+      </c>
+      <c r="D79" s="2">
+        <v>31</v>
+      </c>
+      <c r="E79" s="2">
+        <v>104</v>
+      </c>
+      <c r="F79" s="2">
+        <v>28.211586901763223</v>
+      </c>
+      <c r="G79" s="2">
+        <v>33.258928571428569</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C80" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D80" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E80" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>89.955357142857139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="2">
+        <v>90</v>
+      </c>
+      <c r="C81" s="2">
+        <v>30</v>
+      </c>
+      <c r="D81" s="2">
+        <v>42</v>
+      </c>
+      <c r="E81" s="2">
+        <v>90</v>
+      </c>
+      <c r="F81" s="2">
+        <v>51.889168765743072</v>
+      </c>
+      <c r="G81" s="2">
+        <v>19.866071428571427</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="2">
+        <v>93</v>
+      </c>
+      <c r="C82" s="2">
+        <v>39</v>
+      </c>
+      <c r="D82" s="2">
+        <v>36</v>
+      </c>
+      <c r="E82" s="2">
+        <v>95</v>
+      </c>
+      <c r="F82" s="2">
+        <v>81.360201511335006</v>
+      </c>
+      <c r="G82" s="2">
+        <v>19.866071428571427</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C83" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D83" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E83" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F83" s="2">
+        <v>18.387909319899244</v>
+      </c>
+      <c r="G83" s="2">
+        <v>37.276785714285708</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C84" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D84" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E84" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F84" s="2">
+        <v>35.516372795969772</v>
+      </c>
+      <c r="G84" s="2">
+        <v>52.232142857142854</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="2">
+        <v>86</v>
+      </c>
+      <c r="C85" s="2">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2">
+        <v>43</v>
+      </c>
+      <c r="E85" s="2">
+        <v>92</v>
+      </c>
+      <c r="F85" s="2">
+        <v>52.141057934508815</v>
+      </c>
+      <c r="G85" s="2">
+        <v>28.124999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2">
+        <v>74</v>
+      </c>
+      <c r="C86" s="2">
+        <v>20</v>
+      </c>
+      <c r="D86" s="2">
+        <v>48</v>
+      </c>
+      <c r="E86" s="2">
+        <v>8</v>
+      </c>
+      <c r="F86" s="2">
+        <v>71.536523929471031</v>
+      </c>
+      <c r="G86" s="2">
+        <v>45.535714285714285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="2">
+        <v>104</v>
+      </c>
+      <c r="C87" s="2">
+        <v>52</v>
+      </c>
+      <c r="D87" s="2">
+        <v>110</v>
+      </c>
+      <c r="E87" s="2">
+        <v>51</v>
+      </c>
+      <c r="F87" s="2">
+        <v>76.57430730478589</v>
+      </c>
+      <c r="G87" s="2">
+        <v>28.348214285714285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="2">
+        <v>71</v>
+      </c>
+      <c r="C88" s="2">
+        <v>27</v>
+      </c>
+      <c r="D88" s="2">
+        <v>19</v>
+      </c>
+      <c r="E88" s="2">
+        <v>88</v>
+      </c>
+      <c r="F88" s="2">
+        <v>48.614609571788414</v>
+      </c>
+      <c r="G88" s="2">
+        <v>47.544642857142854</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C89" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D89" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E89" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F89" s="2">
+        <v>34</v>
+      </c>
+      <c r="G89" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="2">
+        <v>49</v>
+      </c>
+      <c r="C90" s="2">
+        <v>65</v>
+      </c>
+      <c r="D90" s="2">
+        <v>63</v>
+      </c>
+      <c r="E90" s="2">
+        <v>49</v>
+      </c>
+      <c r="F90" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G90" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="2">
+        <v>57</v>
+      </c>
+      <c r="C91" s="2">
+        <v>51</v>
+      </c>
+      <c r="D91" s="2">
+        <v>42</v>
+      </c>
+      <c r="E91" s="2">
+        <v>86</v>
+      </c>
+      <c r="F91" s="2">
+        <v>47.607052896725442</v>
+      </c>
+      <c r="G91" s="2">
+        <v>43.526785714285708</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="2">
+        <v>85</v>
+      </c>
+      <c r="C92" s="2">
+        <v>47</v>
+      </c>
+      <c r="D92" s="2">
+        <v>37</v>
+      </c>
+      <c r="E92" s="2">
+        <v>92</v>
+      </c>
+      <c r="F92" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G92" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="2">
+        <v>31</v>
+      </c>
+      <c r="C93" s="2">
+        <v>71</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5</v>
+      </c>
+      <c r="E93" s="2">
+        <v>29</v>
+      </c>
+      <c r="F93" s="2">
+        <v>52.896725440806044</v>
+      </c>
+      <c r="G93" s="2">
+        <v>77.678571428571416</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="2">
+        <v>34</v>
+      </c>
+      <c r="C94" s="2">
+        <v>68</v>
+      </c>
+      <c r="D94" s="2">
+        <v>70</v>
+      </c>
+      <c r="E94" s="2">
+        <v>58</v>
+      </c>
+      <c r="F94" s="2">
+        <v>73.551637279597003</v>
+      </c>
+      <c r="G94" s="2">
+        <v>66.071428571428598</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="2">
+        <v>70</v>
+      </c>
+      <c r="C95" s="2">
+        <v>64</v>
+      </c>
+      <c r="D95" s="2">
+        <v>58</v>
+      </c>
+      <c r="E95" s="2">
+        <v>70</v>
+      </c>
+      <c r="F95" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G95" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="2">
+        <v>26</v>
+      </c>
+      <c r="C96" s="2">
+        <v>69</v>
+      </c>
+      <c r="D96" s="2">
+        <v>72</v>
+      </c>
+      <c r="E96" s="2">
+        <v>56</v>
+      </c>
+      <c r="F96" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G96" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="2">
+        <v>58</v>
+      </c>
+      <c r="C97" s="2">
+        <v>17</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45</v>
+      </c>
+      <c r="E97" s="2">
+        <v>69</v>
+      </c>
+      <c r="F97" s="2">
+        <v>92.947103274559183</v>
+      </c>
+      <c r="G97" s="2">
+        <v>49.107142857142854</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C98" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D98" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E98" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F98" s="2">
+        <v>34.005037783375315</v>
+      </c>
+      <c r="G98" s="2">
+        <v>38.392857142857139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" s="2">
+        <v>64</v>
+      </c>
+      <c r="C99" s="2">
+        <v>20</v>
+      </c>
+      <c r="D99" s="2">
+        <v>34</v>
+      </c>
+      <c r="E99" s="2">
+        <v>64</v>
+      </c>
+      <c r="F99" s="2">
+        <v>31.738035264483624</v>
+      </c>
+      <c r="G99" s="2">
+        <v>45.089285714285708</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" s="2">
+        <v>47</v>
+      </c>
+      <c r="C100" s="2">
+        <v>16</v>
+      </c>
+      <c r="D100" s="2">
+        <v>58</v>
+      </c>
+      <c r="E100" s="2">
+        <v>55</v>
+      </c>
+      <c r="F100" s="2">
+        <v>12.594458438287154</v>
+      </c>
+      <c r="G100" s="2">
+        <v>80.133928571428569</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="2">
+        <v>66</v>
+      </c>
+      <c r="C101" s="2">
+        <v>37</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45</v>
+      </c>
+      <c r="E101" s="2">
+        <v>85</v>
+      </c>
+      <c r="F101" s="2">
+        <v>45.591939546599491</v>
+      </c>
+      <c r="G101" s="2">
+        <v>49.107142857142854</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="2">
+        <v>40</v>
+      </c>
+      <c r="C102" s="2">
+        <v>91</v>
+      </c>
+      <c r="D102" s="2">
+        <v>62</v>
+      </c>
+      <c r="E102" s="2">
+        <v>46</v>
+      </c>
+      <c r="F102" s="2">
+        <v>25.6926952141058</v>
+      </c>
+      <c r="G102" s="2">
+        <v>68.080357142857096</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C103" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D103" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E103" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F103" s="2">
+        <v>23.677581863979849</v>
+      </c>
+      <c r="G103" s="2">
+        <v>52.455357142857139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C104" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D104" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E104" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F104" s="2">
+        <v>86.397984886649866</v>
+      </c>
+      <c r="G104" s="2">
+        <v>14.285714285714285</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" s="2">
+        <v>61</v>
+      </c>
+      <c r="C105" s="2">
+        <v>36</v>
+      </c>
+      <c r="D105" s="2">
+        <v>38</v>
+      </c>
+      <c r="E105" s="2">
+        <v>100</v>
+      </c>
+      <c r="F105" s="2">
+        <v>26.196473551637279</v>
+      </c>
+      <c r="G105" s="2">
+        <v>53.348214285714278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="2">
+        <v>81</v>
+      </c>
+      <c r="C106" s="2">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2">
+        <v>73</v>
+      </c>
+      <c r="E106" s="2">
+        <v>76</v>
+      </c>
+      <c r="F106" s="2">
+        <v>15.617128463476069</v>
+      </c>
+      <c r="G106" s="2">
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="2">
+        <v>70</v>
+      </c>
+      <c r="C107" s="2">
+        <v>20</v>
+      </c>
+      <c r="D107" s="2">
+        <v>40</v>
+      </c>
+      <c r="E107" s="2">
+        <v>30</v>
+      </c>
+      <c r="F107" s="2">
+        <v>57.178841309823675</v>
+      </c>
+      <c r="G107" s="2">
+        <v>35.491071428571423</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C108" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D108" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E108" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F108" s="2">
+        <v>30.226700251889167</v>
+      </c>
+      <c r="G108" s="2">
+        <v>42.187499999999993</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C109" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D109" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E109" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F109" s="2">
+        <v>15.365239294710326</v>
+      </c>
+      <c r="G109" s="2">
+        <v>27.678571428571427</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sample-dataset.xlsx
+++ b/sample-dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larryzotter/Documents/GitHub/country/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553C92A2-2ACD-6C49-9CFE-9AB8DBF7A90F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BC7031-D35B-DB4A-8B2A-2677931CBA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="1900" windowWidth="28040" windowHeight="16160" activeTab="1" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
+    <workbookView xWindow="10360" yWindow="1900" windowWidth="28040" windowHeight="16160" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
   </bookViews>
   <sheets>
     <sheet name="vietnam" sheetId="1" r:id="rId1"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B56575-7B11-A44B-9EE9-516FDC2F033E}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1772,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69BC92B-BFAC-6245-B896-0DF5851FF7B7}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1839,10 +1839,10 @@
         <v>30</v>
       </c>
       <c r="F3" s="2">
-        <v>87.405541561712795</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2">
-        <v>23.660714285714299</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1921,10 +1921,10 @@
         <v>44</v>
       </c>
       <c r="F3" s="2">
-        <v>27.455919395465994</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2">
-        <v>41.964285714285708</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/sample-dataset.xlsx
+++ b/sample-dataset.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larryzotter/Documents/GitHub/country/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larry\Documents\GitHub\country\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BC7031-D35B-DB4A-8B2A-2677931CBA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49237016-BF33-494B-B913-2DEA9E22C888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="1900" windowWidth="28040" windowHeight="16160" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
+    <workbookView xWindow="-465" yWindow="0" windowWidth="20115" windowHeight="12690" activeTab="1" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
   </bookViews>
   <sheets>
     <sheet name="vietnam" sheetId="1" r:id="rId1"/>
-    <sheet name="china" sheetId="2" r:id="rId2"/>
-    <sheet name="philippines" sheetId="3" r:id="rId3"/>
-    <sheet name="overall" sheetId="4" r:id="rId4"/>
+    <sheet name="indonesia" sheetId="5" r:id="rId2"/>
+    <sheet name="china" sheetId="2" r:id="rId3"/>
+    <sheet name="philippines" sheetId="3" r:id="rId4"/>
+    <sheet name="overall" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
   <si>
     <t>Singapore</t>
   </si>
@@ -435,7 +436,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -749,17 +750,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B56575-7B11-A44B-9EE9-516FDC2F033E}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -780,7 +781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -826,7 +827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -835,7 +836,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -844,7 +845,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -853,7 +854,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -862,7 +863,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -871,7 +872,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -880,7 +881,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -889,7 +890,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -898,7 +899,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -907,7 +908,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -916,7 +917,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -925,7 +926,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -934,7 +935,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -943,7 +944,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -952,7 +953,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -961,7 +962,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -970,7 +971,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -979,7 +980,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -988,7 +989,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -997,7 +998,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1006,7 +1007,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1015,7 +1016,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1024,7 +1025,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1033,7 +1034,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1042,7 +1043,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1051,7 +1052,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1060,7 +1061,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1069,7 +1070,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1078,7 +1079,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1087,7 +1088,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1096,7 +1097,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1105,7 +1106,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1114,7 +1115,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1123,7 +1124,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1132,7 +1133,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1141,7 +1142,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1150,7 +1151,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1159,7 +1160,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1168,7 +1169,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1177,7 +1178,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1186,7 +1187,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1195,7 +1196,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1204,7 +1205,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1213,7 +1214,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1222,7 +1223,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1231,7 +1232,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1240,7 +1241,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1249,7 +1250,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1258,7 +1259,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1267,7 +1268,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1276,7 +1277,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1285,7 +1286,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1294,7 +1295,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1303,7 +1304,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1312,7 +1313,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1321,7 +1322,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1330,7 +1331,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1339,7 +1340,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1348,7 +1349,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1357,7 +1358,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1366,7 +1367,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1375,7 +1376,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1384,7 +1385,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1393,7 +1394,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1402,7 +1403,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1411,7 +1412,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1420,7 +1421,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1429,7 +1430,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1438,7 +1439,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1447,7 +1448,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1456,7 +1457,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1465,7 +1466,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1474,7 +1475,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1483,7 +1484,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1492,7 +1493,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1501,7 +1502,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1510,7 +1511,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1519,7 +1520,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1528,7 +1529,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1537,7 +1538,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1546,7 +1547,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1555,7 +1556,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1564,7 +1565,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1573,7 +1574,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1582,7 +1583,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1591,7 +1592,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1600,7 +1601,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1609,7 +1610,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1618,7 +1619,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1627,7 +1628,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1636,7 +1637,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1645,7 +1646,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1654,7 +1655,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1663,7 +1664,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1672,7 +1673,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1681,7 +1682,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1690,7 +1691,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1699,7 +1700,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1708,7 +1709,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1717,7 +1718,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1726,7 +1727,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1735,7 +1736,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1744,7 +1745,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1753,7 +1754,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1769,6 +1770,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05C451C-DFE3-4830-ACC8-934FBEC7B834}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>72</v>
+      </c>
+      <c r="G2" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69BC92B-BFAC-6245-B896-0DF5851FF7B7}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1776,9 +1859,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1799,7 +1882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1905,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1843,88 +1926,6 @@
       </c>
       <c r="G3" s="2">
         <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1868D9F8-936E-0947-8BF8-CE3EDAAA9DEB}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>74</v>
-      </c>
-      <c r="C2" s="4">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4">
-        <v>72</v>
-      </c>
-      <c r="G2" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2">
-        <v>64</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44</v>
-      </c>
-      <c r="F3" s="2">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1933,6 +1934,88 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1868D9F8-936E-0947-8BF8-CE3EDAAA9DEB}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>72</v>
+      </c>
+      <c r="G2" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B0D3A0-BD86-664F-B931-6B3FDC7226BC}">
   <dimension ref="A1:G109"/>
   <sheetViews>
@@ -1940,13 +2023,13 @@
       <selection activeCell="A22" sqref="A22:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1967,7 +2050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1990,7 +2073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2013,7 +2096,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2036,7 +2119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2059,7 +2142,7 @@
         <v>61.830357142857139</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2082,7 +2165,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -2105,7 +2188,7 @@
         <v>71.428571428571416</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2128,7 +2211,7 @@
         <v>62.723214285714278</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2151,7 +2234,7 @@
         <v>21.651785714285712</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2174,7 +2257,7 @@
         <v>19.642857142857142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2197,7 +2280,7 @@
         <v>14.9553571428571</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2220,7 +2303,7 @@
         <v>56.696428571428598</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2243,7 +2326,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2266,7 +2349,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -2289,7 +2372,7 @@
         <v>44.196428571428569</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2312,7 +2395,7 @@
         <v>59.151785714285708</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2335,7 +2418,7 @@
         <v>15.848214285714285</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2358,7 +2441,7 @@
         <v>18.0803571428571</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2381,7 +2464,7 @@
         <v>68.303571428571416</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,7 +2487,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2427,7 +2510,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2450,7 +2533,7 @@
         <v>23.660714285714299</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2473,7 +2556,7 @@
         <v>83.035714285714278</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2496,7 +2579,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -2519,7 +2602,7 @@
         <v>33.258928571428569</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -2542,7 +2625,7 @@
         <v>69.866071428571416</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -2565,7 +2648,7 @@
         <v>29.464285714285712</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -2588,7 +2671,7 @@
         <v>69.642857142857139</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,7 +2694,7 @@
         <v>54.241071428571423</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2634,7 +2717,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2657,7 +2740,7 @@
         <v>4.2410714285714279</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -2680,7 +2763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2703,7 +2786,7 @@
         <v>88.839285714285694</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -2726,7 +2809,7 @@
         <v>16.294642857142854</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2749,7 +2832,7 @@
         <v>57.366071428571423</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -2772,7 +2855,7 @@
         <v>47.767857142857139</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -2795,7 +2878,7 @@
         <v>31.919642857142854</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -2818,7 +2901,7 @@
         <v>40.401785714285708</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -2841,7 +2924,7 @@
         <v>34.151785714285701</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -2864,7 +2947,7 @@
         <v>72.321428571428569</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -2887,7 +2970,7 @@
         <v>69.419642857142804</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -2910,7 +2993,7 @@
         <v>49.553571428571423</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -2933,7 +3016,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -2956,7 +3039,7 @@
         <v>16.964285714285712</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -2979,7 +3062,7 @@
         <v>31.473214285714281</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -3002,7 +3085,7 @@
         <v>66.741071428571416</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -3025,7 +3108,7 @@
         <v>26.116071428571399</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -3048,7 +3131,7 @@
         <v>37.723214285714285</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -3071,7 +3154,7 @@
         <v>40.401785714285708</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -3094,7 +3177,7 @@
         <v>16.741071428571399</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -3117,7 +3200,7 @@
         <v>64.955357142857139</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
@@ -3140,7 +3223,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>59</v>
       </c>
@@ -3163,7 +3246,7 @@
         <v>29.687499999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
@@ -3186,7 +3269,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -3209,7 +3292,7 @@
         <v>41.741071428571402</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
@@ -3232,7 +3315,7 @@
         <v>43.080357142857139</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,7 +3338,7 @@
         <v>29.464285714285712</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -3278,7 +3361,7 @@
         <v>39.285714285714285</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
@@ -3301,7 +3384,7 @@
         <v>12.946428571428569</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
@@ -3324,7 +3407,7 @@
         <v>15.624999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
@@ -3347,7 +3430,7 @@
         <v>56.026785714285708</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>68</v>
       </c>
@@ -3370,7 +3453,7 @@
         <v>35.267857142857139</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
@@ -3393,7 +3476,7 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>70</v>
       </c>
@@ -3416,7 +3499,7 @@
         <v>42.633928571428569</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>71</v>
       </c>
@@ -3439,7 +3522,7 @@
         <v>65.625</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>72</v>
       </c>
@@ -3462,7 +3545,7 @@
         <v>97.321428571428598</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>73</v>
       </c>
@@ -3485,7 +3568,7 @@
         <v>19.196428571428601</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>74</v>
       </c>
@@ -3508,7 +3591,7 @@
         <v>19.866071428571427</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>75</v>
       </c>
@@ -3531,7 +3614,7 @@
         <v>25.446428571428569</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>76</v>
       </c>
@@ -3554,7 +3637,7 @@
         <v>68.303571428571416</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>77</v>
       </c>
@@ -3577,7 +3660,7 @@
         <v>74.553571428571402</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>78</v>
       </c>
@@ -3600,7 +3683,7 @@
         <v>83.928571428571416</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>79</v>
       </c>
@@ -3623,7 +3706,7 @@
         <v>55.133928571428569</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>80</v>
       </c>
@@ -3646,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>81</v>
       </c>
@@ -3669,7 +3752,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>82</v>
       </c>
@@ -3692,7 +3775,7 @@
         <v>46.205357142857139</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>83</v>
       </c>
@@ -3715,7 +3798,7 @@
         <v>41.964285714285708</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
@@ -3738,7 +3821,7 @@
         <v>29.241071428571427</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>85</v>
       </c>
@@ -3761,7 +3844,7 @@
         <v>33.258928571428569</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>86</v>
       </c>
@@ -3784,7 +3867,7 @@
         <v>89.955357142857139</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>87</v>
       </c>
@@ -3807,7 +3890,7 @@
         <v>19.866071428571427</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,7 +3913,7 @@
         <v>19.866071428571427</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>89</v>
       </c>
@@ -3853,7 +3936,7 @@
         <v>37.276785714285708</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>90</v>
       </c>
@@ -3876,7 +3959,7 @@
         <v>52.232142857142854</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>91</v>
       </c>
@@ -3899,7 +3982,7 @@
         <v>28.124999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -3922,7 +4005,7 @@
         <v>45.535714285714285</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
@@ -3945,7 +4028,7 @@
         <v>28.348214285714285</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
@@ -3968,7 +4051,7 @@
         <v>47.544642857142854</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
@@ -3991,7 +4074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -4014,7 +4097,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
@@ -4037,7 +4120,7 @@
         <v>43.526785714285708</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
@@ -4060,7 +4143,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
@@ -4083,7 +4166,7 @@
         <v>77.678571428571416</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -4106,7 +4189,7 @@
         <v>66.071428571428598</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
@@ -4129,7 +4212,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
@@ -4152,7 +4235,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
@@ -4175,7 +4258,7 @@
         <v>49.107142857142854</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
@@ -4198,7 +4281,7 @@
         <v>38.392857142857139</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
@@ -4221,7 +4304,7 @@
         <v>45.089285714285708</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
@@ -4244,7 +4327,7 @@
         <v>80.133928571428569</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
@@ -4267,7 +4350,7 @@
         <v>49.107142857142854</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
@@ -4290,7 +4373,7 @@
         <v>68.080357142857096</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
@@ -4313,7 +4396,7 @@
         <v>52.455357142857139</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
@@ -4336,7 +4419,7 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
@@ -4359,7 +4442,7 @@
         <v>53.348214285714278</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>111</v>
       </c>
@@ -4382,7 +4465,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>1</v>
       </c>
@@ -4405,7 +4488,7 @@
         <v>35.491071428571423</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
@@ -4428,7 +4511,7 @@
         <v>42.187499999999993</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>

--- a/sample-dataset.xlsx
+++ b/sample-dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larry\Documents\GitHub\country\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49237016-BF33-494B-B913-2DEA9E22C888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943E6CF8-10D9-4789-95BB-35112D3BA11D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-465" yWindow="0" windowWidth="20115" windowHeight="12690" activeTab="1" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
+    <workbookView xWindow="1005" yWindow="1860" windowWidth="20115" windowHeight="12690" activeTab="1" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
   </bookViews>
   <sheets>
     <sheet name="vietnam" sheetId="1" r:id="rId1"/>
@@ -1774,7 +1774,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2">
         <v>78</v>

--- a/sample-dataset.xlsx
+++ b/sample-dataset.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larry\Documents\GitHub\country\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943E6CF8-10D9-4789-95BB-35112D3BA11D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B274694-B7EE-43CE-9053-A1ECE9135018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1860" windowWidth="20115" windowHeight="12690" activeTab="1" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
+    <workbookView xWindow="5370" yWindow="1320" windowWidth="23265" windowHeight="13455" activeTab="2" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
   </bookViews>
   <sheets>
     <sheet name="vietnam" sheetId="1" r:id="rId1"/>
     <sheet name="indonesia" sheetId="5" r:id="rId2"/>
-    <sheet name="china" sheetId="2" r:id="rId3"/>
-    <sheet name="philippines" sheetId="3" r:id="rId4"/>
-    <sheet name="overall" sheetId="4" r:id="rId5"/>
+    <sheet name="thailand" sheetId="6" r:id="rId3"/>
+    <sheet name="china" sheetId="2" r:id="rId4"/>
+    <sheet name="philippines" sheetId="3" r:id="rId5"/>
+    <sheet name="overall" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
   <si>
     <t>Singapore</t>
   </si>
@@ -1773,6 +1774,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05C451C-DFE3-4830-ACC8-934FBEC7B834}">
   <dimension ref="A1:G3"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>72</v>
+      </c>
+      <c r="G2" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86E551A-34D3-404A-A2C1-0BC4DC2CD7E9}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -1825,25 +1908,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2">
-        <v>62</v>
+        <v>31.738035264483624</v>
       </c>
       <c r="G3" s="2">
-        <v>38</v>
+        <v>45.089285714285708</v>
       </c>
     </row>
   </sheetData>
@@ -1851,12 +1934,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69BC92B-BFAC-6245-B896-0DF5851FF7B7}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1933,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1868D9F8-936E-0947-8BF8-CE3EDAAA9DEB}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2015,12 +2098,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B0D3A0-BD86-664F-B931-6B3FDC7226BC}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G22"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G99" sqref="B99:G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/sample-dataset.xlsx
+++ b/sample-dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larry\Documents\GitHub\country\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B274694-B7EE-43CE-9053-A1ECE9135018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D61C04-E5FA-49DB-8795-CFC3A5982100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5370" yWindow="1320" windowWidth="23265" windowHeight="13455" activeTab="2" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
   </bookViews>
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1923,10 +1923,10 @@
         <v>64</v>
       </c>
       <c r="F3" s="2">
-        <v>31.738035264483624</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2">
-        <v>45.089285714285708</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/sample-dataset.xlsx
+++ b/sample-dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larry\Documents\GitHub\country\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larry/Documents/GitHub/country/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D61C04-E5FA-49DB-8795-CFC3A5982100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DCD955-D869-BB41-8F7E-B369F15ED594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="1320" windowWidth="23265" windowHeight="13455" activeTab="2" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
+    <workbookView xWindow="10340" yWindow="4980" windowWidth="23260" windowHeight="13460" activeTab="5" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
   </bookViews>
   <sheets>
     <sheet name="vietnam" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
   <si>
     <t>Singapore</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Nepal</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -755,13 +758,13 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -782,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -828,7 +831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -837,7 +840,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -846,7 +849,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -855,7 +858,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -864,7 +867,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -873,7 +876,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -882,7 +885,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -891,7 +894,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -900,7 +903,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -909,7 +912,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -918,7 +921,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -927,7 +930,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -936,7 +939,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -945,7 +948,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -954,7 +957,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -963,7 +966,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -972,7 +975,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -981,7 +984,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -990,7 +993,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -999,7 +1002,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1008,7 +1011,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1017,7 +1020,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1026,7 +1029,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1035,7 +1038,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1044,7 +1047,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1053,7 +1056,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1062,7 +1065,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1071,7 +1074,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1080,7 +1083,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1089,7 +1092,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1098,7 +1101,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1107,7 +1110,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1116,7 +1119,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1125,7 +1128,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1134,7 +1137,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1143,7 +1146,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1152,7 +1155,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1161,7 +1164,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1170,7 +1173,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1179,7 +1182,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1188,7 +1191,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1197,7 +1200,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1206,7 +1209,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1215,7 +1218,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1224,7 +1227,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1233,7 +1236,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1242,7 +1245,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1251,7 +1254,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1260,7 +1263,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1269,7 +1272,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1278,7 +1281,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1287,7 +1290,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1296,7 +1299,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1305,7 +1308,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1314,7 +1317,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1323,7 +1326,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1332,7 +1335,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1341,7 +1344,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1350,7 +1353,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1359,7 +1362,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1368,7 +1371,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1377,7 +1380,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1386,7 +1389,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1395,7 +1398,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1404,7 +1407,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1413,7 +1416,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1422,7 +1425,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1431,7 +1434,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1440,7 +1443,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1449,7 +1452,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1458,7 +1461,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1467,7 +1470,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1476,7 +1479,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1485,7 +1488,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1494,7 +1497,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1503,7 +1506,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1512,7 +1515,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1521,7 +1524,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1530,7 +1533,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1539,7 +1542,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1548,7 +1551,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1557,7 +1560,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1566,7 +1569,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1575,7 +1578,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1584,7 +1587,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1593,7 +1596,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1602,7 +1605,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1611,7 +1614,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1620,7 +1623,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1629,7 +1632,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1638,7 +1641,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1647,7 +1650,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1656,7 +1659,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1665,7 +1668,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1674,7 +1677,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1683,7 +1686,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1692,7 +1695,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1701,7 +1704,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1710,7 +1713,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1719,7 +1722,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1728,7 +1731,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1737,7 +1740,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1746,7 +1749,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1755,7 +1758,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1767,6 +1770,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000 SMU Classification: Restricted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1778,9 +1784,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1801,7 +1807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -1849,6 +1855,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000 SMU Classification: Restricted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1856,13 +1865,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86E551A-34D3-404A-A2C1-0BC4DC2CD7E9}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1883,7 +1892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1906,7 +1915,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
@@ -1931,6 +1940,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000 SMU Classification: Restricted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1942,9 +1954,9 @@
       <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1965,7 +1977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +2000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -2013,6 +2025,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000 SMU Classification: Restricted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2024,9 +2039,9 @@
       <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -2047,7 +2062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2070,7 +2085,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -2095,24 +2110,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000 SMU Classification: Restricted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B0D3A0-BD86-664F-B931-6B3FDC7226BC}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G99" sqref="B99:G99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -2133,7 +2151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2156,7 +2174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2179,7 +2197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2202,7 +2220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2225,7 +2243,7 @@
         <v>61.830357142857139</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2248,7 +2266,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -2271,7 +2289,7 @@
         <v>71.428571428571416</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2294,7 +2312,7 @@
         <v>62.723214285714278</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2317,7 +2335,7 @@
         <v>21.651785714285712</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2340,7 +2358,7 @@
         <v>19.642857142857142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2363,7 +2381,7 @@
         <v>14.9553571428571</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2386,7 +2404,7 @@
         <v>56.696428571428598</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2409,7 +2427,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2432,7 +2450,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -2455,7 +2473,7 @@
         <v>44.196428571428569</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2478,7 +2496,7 @@
         <v>59.151785714285708</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2501,7 +2519,7 @@
         <v>15.848214285714285</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2524,7 +2542,7 @@
         <v>18.0803571428571</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2547,7 +2565,7 @@
         <v>68.303571428571416</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2570,7 +2588,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2593,7 +2611,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2616,7 +2634,7 @@
         <v>23.660714285714299</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2639,7 +2657,7 @@
         <v>83.035714285714278</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2662,7 +2680,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -2685,7 +2703,7 @@
         <v>33.258928571428569</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -2708,7 +2726,7 @@
         <v>69.866071428571416</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -2731,7 +2749,7 @@
         <v>29.464285714285712</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -2754,7 +2772,7 @@
         <v>69.642857142857139</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -2777,7 +2795,7 @@
         <v>54.241071428571423</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2800,7 +2818,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2823,7 +2841,7 @@
         <v>4.2410714285714279</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -2846,7 +2864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2869,7 +2887,7 @@
         <v>88.839285714285694</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -2892,7 +2910,7 @@
         <v>16.294642857142854</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2915,7 +2933,7 @@
         <v>57.366071428571423</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -2938,7 +2956,7 @@
         <v>47.767857142857139</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -2961,7 +2979,7 @@
         <v>31.919642857142854</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -2984,7 +3002,7 @@
         <v>40.401785714285708</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -3007,7 +3025,7 @@
         <v>34.151785714285701</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,7 +3048,7 @@
         <v>72.321428571428569</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -3053,7 +3071,7 @@
         <v>69.419642857142804</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -3076,7 +3094,7 @@
         <v>49.553571428571423</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -3099,7 +3117,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -3122,7 +3140,7 @@
         <v>16.964285714285712</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -3145,7 +3163,7 @@
         <v>31.473214285714281</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -3168,7 +3186,7 @@
         <v>66.741071428571416</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -3191,7 +3209,7 @@
         <v>26.116071428571399</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -3214,7 +3232,7 @@
         <v>37.723214285714285</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -3237,7 +3255,7 @@
         <v>40.401785714285708</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -3260,7 +3278,7 @@
         <v>16.741071428571399</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -3283,7 +3301,7 @@
         <v>64.955357142857139</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
@@ -3306,7 +3324,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>59</v>
       </c>
@@ -3329,7 +3347,7 @@
         <v>29.687499999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
@@ -3352,7 +3370,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -3375,7 +3393,7 @@
         <v>41.741071428571402</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
@@ -3398,7 +3416,7 @@
         <v>43.080357142857139</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
@@ -3421,7 +3439,7 @@
         <v>29.464285714285712</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -3444,7 +3462,7 @@
         <v>39.285714285714285</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
@@ -3467,7 +3485,7 @@
         <v>12.946428571428569</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
@@ -3490,7 +3508,7 @@
         <v>15.624999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
@@ -3513,7 +3531,7 @@
         <v>56.026785714285708</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>68</v>
       </c>
@@ -3536,7 +3554,7 @@
         <v>35.267857142857139</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
@@ -3559,7 +3577,7 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>70</v>
       </c>
@@ -3582,7 +3600,7 @@
         <v>42.633928571428569</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>71</v>
       </c>
@@ -3605,7 +3623,7 @@
         <v>65.625</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>72</v>
       </c>
@@ -3628,7 +3646,7 @@
         <v>97.321428571428598</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>73</v>
       </c>
@@ -3651,7 +3669,7 @@
         <v>19.196428571428601</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>74</v>
       </c>
@@ -3674,7 +3692,7 @@
         <v>19.866071428571427</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>75</v>
       </c>
@@ -3697,927 +3715,953 @@
         <v>25.446428571428569</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="2">
+        <v>65</v>
+      </c>
+      <c r="C70" s="2">
+        <v>30</v>
+      </c>
+      <c r="D70" s="2">
+        <v>40</v>
+      </c>
+      <c r="E70" s="2">
+        <v>40</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B71" s="2">
         <v>38</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C71" s="2">
         <v>80</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D71" s="2">
         <v>14</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E71" s="2">
         <v>53</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F71" s="2">
         <v>67.002518891687657</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G71" s="2">
         <v>68.303571428571416</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B72" s="2">
         <v>22</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C72" s="2">
         <v>79</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D72" s="2">
         <v>58</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E72" s="2">
         <v>49</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F72" s="2">
         <v>32.7455919395466</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G72" s="2">
         <v>74.553571428571402</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="C72" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="D72" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="E72" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="F72" s="2">
+      <c r="B73" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C73" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D73" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E73" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F73" s="2">
         <v>12.846347607052897</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G73" s="2">
         <v>83.928571428571416</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B74" s="2">
         <v>31</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C74" s="2">
         <v>69</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D74" s="2">
         <v>8</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E74" s="2">
         <v>50</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F74" s="2">
         <v>34.508816120906801</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G74" s="2">
         <v>55.133928571428569</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B75" s="2">
         <v>55</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C75" s="2">
         <v>14</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D75" s="2">
         <v>50</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E75" s="2">
         <v>70</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F75" s="2">
         <v>49.874055415617129</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G75" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B76" s="2">
         <v>95</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C76" s="2">
         <v>11</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D76" s="2">
         <v>44</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E76" s="2">
         <v>86</v>
       </c>
-      <c r="F75" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="G75" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="F76" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G76" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B77" s="2">
         <v>64</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C77" s="2">
         <v>16</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D77" s="2">
         <v>42</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E77" s="2">
         <v>87</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F77" s="2">
         <v>25.188916876574307</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G77" s="2">
         <v>46.205357142857139</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B78" s="2">
         <v>94</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C78" s="2">
         <v>32</v>
-      </c>
-      <c r="D77" s="2">
-        <v>64</v>
-      </c>
-      <c r="E77" s="2">
-        <v>44</v>
-      </c>
-      <c r="F77" s="2">
-        <v>27.455919395465994</v>
-      </c>
-      <c r="G77" s="2">
-        <v>41.964285714285708</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B78" s="2">
-        <v>68</v>
-      </c>
-      <c r="C78" s="2">
-        <v>60</v>
       </c>
       <c r="D78" s="2">
         <v>64</v>
       </c>
       <c r="E78" s="2">
+        <v>44</v>
+      </c>
+      <c r="F78" s="2">
+        <v>27.455919395465994</v>
+      </c>
+      <c r="G78" s="2">
+        <v>41.964285714285708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="2">
+        <v>68</v>
+      </c>
+      <c r="C79" s="2">
+        <v>60</v>
+      </c>
+      <c r="D79" s="2">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
         <v>93</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F79" s="2">
         <v>37.783375314861459</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G79" s="2">
         <v>29.241071428571427</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B80" s="2">
         <v>63</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C80" s="2">
         <v>27</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D80" s="2">
         <v>31</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E80" s="2">
         <v>104</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F80" s="2">
         <v>28.211586901763223</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G80" s="2">
         <v>33.258928571428569</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="C80" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="D80" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="E80" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="F80" s="2">
+      <c r="B81" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C81" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D81" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E81" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F81" s="2">
         <v>0</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G81" s="2">
         <v>89.955357142857139</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B82" s="2">
         <v>90</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C82" s="2">
         <v>30</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D82" s="2">
         <v>42</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E82" s="2">
         <v>90</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F82" s="2">
         <v>51.889168765743072</v>
-      </c>
-      <c r="G81" s="2">
-        <v>19.866071428571427</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82" s="2">
-        <v>93</v>
-      </c>
-      <c r="C82" s="2">
-        <v>39</v>
-      </c>
-      <c r="D82" s="2">
-        <v>36</v>
-      </c>
-      <c r="E82" s="2">
-        <v>95</v>
-      </c>
-      <c r="F82" s="2">
-        <v>81.360201511335006</v>
       </c>
       <c r="G82" s="2">
         <v>19.866071428571427</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="2">
+        <v>93</v>
+      </c>
+      <c r="C83" s="2">
+        <v>39</v>
+      </c>
+      <c r="D83" s="2">
+        <v>36</v>
+      </c>
+      <c r="E83" s="2">
+        <v>95</v>
+      </c>
+      <c r="F83" s="2">
+        <v>81.360201511335006</v>
+      </c>
+      <c r="G83" s="2">
+        <v>19.866071428571427</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="C83" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="D83" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="E83" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="F83" s="2">
+      <c r="B84" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C84" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D84" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E84" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F84" s="2">
         <v>18.387909319899244</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G84" s="2">
         <v>37.276785714285708</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="C84" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="D84" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="E84" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="F84" s="2">
+      <c r="B85" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C85" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D85" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E85" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F85" s="2">
         <v>35.516372795969772</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G85" s="2">
         <v>52.232142857142854</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B86" s="2">
         <v>86</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C86" s="2">
         <v>25</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D86" s="2">
         <v>43</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E86" s="2">
         <v>92</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F86" s="2">
         <v>52.141057934508815</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G86" s="2">
         <v>28.124999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B87" s="2">
         <v>74</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C87" s="2">
         <v>20</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D87" s="2">
         <v>48</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E87" s="2">
         <v>8</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F87" s="2">
         <v>71.536523929471031</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G87" s="2">
         <v>45.535714285714285</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B88" s="2">
         <v>104</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C88" s="2">
         <v>52</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D88" s="2">
         <v>110</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E88" s="2">
         <v>51</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F88" s="2">
         <v>76.57430730478589</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G88" s="2">
         <v>28.348214285714285</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B89" s="2">
         <v>71</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C89" s="2">
         <v>27</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D89" s="2">
         <v>19</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E89" s="2">
         <v>88</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F89" s="2">
         <v>48.614609571788414</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G89" s="2">
         <v>47.544642857142854</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="C89" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="D89" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="E89" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="F89" s="2">
+      <c r="B90" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C90" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D90" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E90" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F90" s="2">
         <v>34</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G90" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B91" s="2">
         <v>49</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C91" s="2">
         <v>65</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D91" s="2">
         <v>63</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E91" s="2">
         <v>49</v>
       </c>
-      <c r="F90" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="G90" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="F91" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G91" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B92" s="2">
         <v>57</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C92" s="2">
         <v>51</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D92" s="2">
         <v>42</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E92" s="2">
         <v>86</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F92" s="2">
         <v>47.607052896725442</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G92" s="2">
         <v>43.526785714285708</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B93" s="2">
         <v>85</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C93" s="2">
         <v>47</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D93" s="2">
         <v>37</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E93" s="2">
         <v>92</v>
       </c>
-      <c r="F92" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="G92" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="F93" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G93" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B94" s="2">
         <v>31</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C94" s="2">
         <v>71</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D94" s="2">
         <v>5</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E94" s="2">
         <v>29</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F94" s="2">
         <v>52.896725440806044</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G94" s="2">
         <v>77.678571428571416</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B95" s="2">
         <v>34</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C95" s="2">
         <v>68</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D95" s="2">
         <v>70</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E95" s="2">
         <v>58</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F95" s="2">
         <v>73.551637279597003</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G95" s="2">
         <v>66.071428571428598</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B96" s="2">
         <v>70</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C96" s="2">
         <v>64</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D96" s="2">
         <v>58</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E96" s="2">
         <v>70</v>
       </c>
-      <c r="F95" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="G95" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="F96" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G96" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B97" s="2">
         <v>26</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C97" s="2">
         <v>69</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D97" s="2">
         <v>72</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E97" s="2">
         <v>56</v>
       </c>
-      <c r="F96" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="G96" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="F97" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G97" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B98" s="2">
         <v>58</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C98" s="2">
         <v>17</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D98" s="2">
         <v>45</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E98" s="2">
         <v>69</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F98" s="2">
         <v>92.947103274559183</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G98" s="2">
         <v>49.107142857142854</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="C98" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="D98" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="E98" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="F98" s="2">
+      <c r="B99" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C99" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D99" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E99" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F99" s="2">
         <v>34.005037783375315</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G99" s="2">
         <v>38.392857142857139</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B100" s="2">
         <v>64</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C100" s="2">
         <v>20</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D100" s="2">
         <v>34</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E100" s="2">
         <v>64</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F100" s="2">
         <v>31.738035264483624</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G100" s="2">
         <v>45.089285714285708</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B101" s="2">
         <v>47</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C101" s="2">
         <v>16</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D101" s="2">
         <v>58</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E101" s="2">
         <v>55</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F101" s="2">
         <v>12.594458438287154</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G101" s="2">
         <v>80.133928571428569</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B102" s="2">
         <v>66</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C102" s="2">
         <v>37</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D102" s="2">
         <v>45</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E102" s="2">
         <v>85</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F102" s="2">
         <v>45.591939546599491</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G102" s="2">
         <v>49.107142857142854</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B103" s="2">
         <v>40</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C103" s="2">
         <v>91</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D103" s="2">
         <v>62</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E103" s="2">
         <v>46</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F103" s="2">
         <v>25.6926952141058</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G103" s="2">
         <v>68.080357142857096</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="C103" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="D103" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="E103" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="F103" s="2">
+      <c r="B104" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C104" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D104" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E104" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F104" s="2">
         <v>23.677581863979849</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G104" s="2">
         <v>52.455357142857139</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="C104" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="D104" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="E104" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="F104" s="2">
+      <c r="B105" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C105" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D105" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E105" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F105" s="2">
         <v>86.397984886649866</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G105" s="2">
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B106" s="2">
         <v>61</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C106" s="2">
         <v>36</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D106" s="2">
         <v>38</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E106" s="2">
         <v>100</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F106" s="2">
         <v>26.196473551637279</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G106" s="2">
         <v>53.348214285714278</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B107" s="2">
         <v>81</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C107" s="2">
         <v>12</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D107" s="2">
         <v>73</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E107" s="2">
         <v>76</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F107" s="2">
         <v>15.617128463476069</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G107" s="2">
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B108" s="2">
         <v>70</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C108" s="2">
         <v>20</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D108" s="2">
         <v>40</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E108" s="2">
         <v>30</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F108" s="2">
         <v>57.178841309823675</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G108" s="2">
         <v>35.491071428571423</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="C108" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="D108" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="E108" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="F108" s="2">
+      <c r="B109" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C109" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D109" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E109" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F109" s="2">
         <v>30.226700251889167</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G109" s="2">
         <v>42.187499999999993</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="C109" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="D109" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="E109" s="2" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="F109" s="2">
+      <c r="B110" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C110" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D110" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E110" s="2" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="F110" s="2">
         <v>15.365239294710326</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G110" s="2">
         <v>27.678571428571427</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000 SMU Classification: Restricted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/sample-dataset.xlsx
+++ b/sample-dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larry/Documents/GitHub/country/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DCD955-D869-BB41-8F7E-B369F15ED594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8FF550-779E-2E48-A245-87486FED726A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="4980" windowWidth="23260" windowHeight="13460" activeTab="5" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
+    <workbookView xWindow="10340" yWindow="4980" windowWidth="23260" windowHeight="13460" activeTab="6" xr2:uid="{1579A73F-3345-9C4D-A9A4-AD0C5901041C}"/>
   </bookViews>
   <sheets>
     <sheet name="vietnam" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="china" sheetId="2" r:id="rId4"/>
     <sheet name="philippines" sheetId="3" r:id="rId5"/>
     <sheet name="overall" sheetId="4" r:id="rId6"/>
+    <sheet name="nepal" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>Singapore</t>
   </si>
@@ -755,7 +756,7 @@
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2120,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B0D3A0-BD86-664F-B931-6B3FDC7226BC}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4664,4 +4665,86 @@
     <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000 SMU Classification: Restricted&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D632D7-CBA3-3842-8EE1-C0DEB0EE818A}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>72</v>
+      </c>
+      <c r="G2" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>